--- a/data/trans_bre/P1805_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1805_2016_2023-Habitat-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1460614267855818</v>
+        <v>0.1114272135427327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.766819741381104</v>
+        <v>-1.891075426416458</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1948289024820812</v>
+        <v>-0.05144272438684424</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4580861770531517</v>
+        <v>-0.4914318190090525</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.089028261752361</v>
+        <v>3.532142891855556</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.469931307911502</v>
+        <v>1.481082743817365</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4.398377518941019</v>
+        <v>5.653620178008056</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.9473451600897247</v>
+        <v>0.889317703612952</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3186678876926216</v>
+        <v>0.3714150353535003</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4027694236798591</v>
+        <v>-0.2189242962431859</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1103011355736604</v>
+        <v>0.1095845623695121</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.133516858198881</v>
+        <v>-0.0982742736068925</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.122588711718515</v>
+        <v>3.238367269092654</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.604731172164835</v>
+        <v>2.805174577734078</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.833153333447766</v>
+        <v>3.137688498669743</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.715018778451338</v>
+        <v>1.802551675172885</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>1.546513314946694</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.556924281351196</v>
+        <v>1.556924281351195</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.121305052648207</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.4294269951015107</v>
+        <v>0.4294269951015105</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004134145086325404</v>
+        <v>0.1089479562494487</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8104284065468011</v>
+        <v>-0.9142783086437395</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.04687198368514475</v>
+        <v>0.01139508891366021</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1675663397813269</v>
+        <v>-0.2052692229583531</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.978110405185313</v>
+        <v>3.015683527274393</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.115277972761081</v>
+        <v>3.711740223059542</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>3.671562814421794</v>
+        <v>3.366410729944425</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.771923406634861</v>
+        <v>1.467387453757776</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7940007962089691</v>
+        <v>0.7324963828789782</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.714437492973932</v>
+        <v>-1.59429658096943</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1598623568803817</v>
+        <v>0.20448766835986</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2894243298753928</v>
+        <v>-0.2645899598600642</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.442382780326906</v>
+        <v>4.566038355079114</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.410025621432501</v>
+        <v>2.489444164716287</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.173290599209444</v>
+        <v>2.218879830251381</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6519733501159591</v>
+        <v>0.7177590098622081</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>1.895128474171354</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.893263096754366</v>
+        <v>0.8932630967543653</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>1.053456987395063</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.2693368147104551</v>
+        <v>0.269336814710455</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.122934631553031</v>
+        <v>1.169990630273347</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1113456419854506</v>
+        <v>-0.06521033936920895</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.5024097142354916</v>
+        <v>0.5567873312441618</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.04434067445694224</v>
+        <v>-0.01533476423460466</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.700942969797131</v>
+        <v>2.747225083376649</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.83199775494246</v>
+        <v>1.761215332287298</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.775155452891763</v>
+        <v>1.850494353310548</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.6720551374920269</v>
+        <v>0.6573504406500597</v>
       </c>
     </row>
     <row r="19">
